--- a/Code/Results/Cases/Case_5_191/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_191/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.000677722001157</v>
+        <v>1.057028082059764</v>
       </c>
       <c r="D2">
-        <v>1.018952697495664</v>
+        <v>1.054582980607437</v>
       </c>
       <c r="E2">
-        <v>1.011227355439773</v>
+        <v>1.06229614213626</v>
       </c>
       <c r="F2">
-        <v>1.014098755413571</v>
+        <v>1.071272194292041</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046134924016225</v>
+        <v>1.041541081105195</v>
       </c>
       <c r="J2">
-        <v>1.022838181398836</v>
+        <v>1.062026641344852</v>
       </c>
       <c r="K2">
-        <v>1.030154157729524</v>
+        <v>1.057325791949646</v>
       </c>
       <c r="L2">
-        <v>1.022532460327871</v>
+        <v>1.065017874336167</v>
       </c>
       <c r="M2">
-        <v>1.025365105305357</v>
+        <v>1.073969809336351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010828291341021</v>
+        <v>1.058887323096292</v>
       </c>
       <c r="D3">
-        <v>1.026812243694997</v>
+        <v>1.056009820986789</v>
       </c>
       <c r="E3">
-        <v>1.020415090838765</v>
+        <v>1.064012694455673</v>
       </c>
       <c r="F3">
-        <v>1.024134705595033</v>
+        <v>1.073179524846739</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04963120146773</v>
+        <v>1.042037246872855</v>
       </c>
       <c r="J3">
-        <v>1.031028056574977</v>
+        <v>1.063533812675358</v>
       </c>
       <c r="K3">
-        <v>1.037113176496084</v>
+        <v>1.058564337102249</v>
       </c>
       <c r="L3">
-        <v>1.030793254038158</v>
+        <v>1.06654694832461</v>
       </c>
       <c r="M3">
-        <v>1.034467817555974</v>
+        <v>1.075690969176053</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017134032507358</v>
+        <v>1.060086506140558</v>
       </c>
       <c r="D4">
-        <v>1.031696649448542</v>
+        <v>1.056929563082408</v>
       </c>
       <c r="E4">
-        <v>1.026125271206509</v>
+        <v>1.065119628164645</v>
       </c>
       <c r="F4">
-        <v>1.030376208943293</v>
+        <v>1.074410140828673</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051785393031312</v>
+        <v>1.04235504896253</v>
       </c>
       <c r="J4">
-        <v>1.036109375882574</v>
+        <v>1.064504932987289</v>
       </c>
       <c r="K4">
-        <v>1.041427001918679</v>
+        <v>1.059361726369347</v>
       </c>
       <c r="L4">
-        <v>1.035918289527395</v>
+        <v>1.067532116180818</v>
       </c>
       <c r="M4">
-        <v>1.040121338044373</v>
+        <v>1.076800699586078</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019726914768341</v>
+        <v>1.060589736302968</v>
       </c>
       <c r="D5">
-        <v>1.033705356218661</v>
+        <v>1.057315394545963</v>
       </c>
       <c r="E5">
-        <v>1.02847377837574</v>
+        <v>1.065584094141732</v>
       </c>
       <c r="F5">
-        <v>1.032944267602734</v>
+        <v>1.074926661026742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052666828469896</v>
+        <v>1.042487881101728</v>
       </c>
       <c r="J5">
-        <v>1.038197163020078</v>
+        <v>1.064912222154091</v>
       </c>
       <c r="K5">
-        <v>1.043198477161136</v>
+        <v>1.059695997014648</v>
       </c>
       <c r="L5">
-        <v>1.03802398003475</v>
+        <v>1.067945281716253</v>
       </c>
       <c r="M5">
-        <v>1.042445648536786</v>
+        <v>1.07726629740958</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02015899473013</v>
+        <v>1.060674178291913</v>
       </c>
       <c r="D6">
-        <v>1.034040099471755</v>
+        <v>1.057380129199358</v>
       </c>
       <c r="E6">
-        <v>1.028865163106263</v>
+        <v>1.065662028427668</v>
       </c>
       <c r="F6">
-        <v>1.033372302360515</v>
+        <v>1.075013338906869</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052813452766548</v>
+        <v>1.042510139121103</v>
       </c>
       <c r="J6">
-        <v>1.038544975865063</v>
+        <v>1.064980551405993</v>
       </c>
       <c r="K6">
-        <v>1.043493535973621</v>
+        <v>1.059752067102849</v>
       </c>
       <c r="L6">
-        <v>1.03837477231287</v>
+        <v>1.068014595942984</v>
       </c>
       <c r="M6">
-        <v>1.042832948872026</v>
+        <v>1.077344419173303</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017168900964848</v>
+        <v>1.060093233860751</v>
       </c>
       <c r="D7">
-        <v>1.031723661220377</v>
+        <v>1.056934721815671</v>
       </c>
       <c r="E7">
-        <v>1.026156851445865</v>
+        <v>1.065125837849638</v>
       </c>
       <c r="F7">
-        <v>1.030410737370269</v>
+        <v>1.074417045833764</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05179726375304</v>
+        <v>1.042356826896374</v>
       </c>
       <c r="J7">
-        <v>1.036137458475459</v>
+        <v>1.0645103789932</v>
       </c>
       <c r="K7">
-        <v>1.041450833739856</v>
+        <v>1.059366196631577</v>
       </c>
       <c r="L7">
-        <v>1.035946613155834</v>
+        <v>1.067537640820941</v>
       </c>
       <c r="M7">
-        <v>1.040152596427397</v>
+        <v>1.076806924566867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004165531342373</v>
+        <v>1.05765723482142</v>
       </c>
       <c r="D8">
-        <v>1.021652770265778</v>
+        <v>1.055065925320917</v>
       </c>
       <c r="E8">
-        <v>1.014383714692897</v>
+        <v>1.062877055041987</v>
       </c>
       <c r="F8">
-        <v>1.017545646451974</v>
+        <v>1.071917533755745</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047339988217166</v>
+        <v>1.041709439456033</v>
       </c>
       <c r="J8">
-        <v>1.025653586582975</v>
+        <v>1.062536860137194</v>
       </c>
       <c r="K8">
-        <v>1.032547216183107</v>
+        <v>1.057745207179451</v>
       </c>
       <c r="L8">
-        <v>1.025372311518998</v>
+        <v>1.065535521520612</v>
       </c>
       <c r="M8">
-        <v>1.028493082123102</v>
+        <v>1.074552317809331</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9789922610375791</v>
+        <v>1.053334141898693</v>
       </c>
       <c r="D9">
-        <v>1.002182557596147</v>
+        <v>1.051745266633999</v>
       </c>
       <c r="E9">
-        <v>0.9916191758914791</v>
+        <v>1.058884547835645</v>
       </c>
       <c r="F9">
-        <v>0.9927026246121794</v>
+        <v>1.067484940558738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038568234663885</v>
+        <v>1.040543482043444</v>
       </c>
       <c r="J9">
-        <v>1.005309308174361</v>
+        <v>1.059026961010733</v>
       </c>
       <c r="K9">
-        <v>1.015240323298189</v>
+        <v>1.054857322554998</v>
       </c>
       <c r="L9">
-        <v>1.004849705524381</v>
+        <v>1.061974236987057</v>
       </c>
       <c r="M9">
-        <v>1.00591521668439</v>
+        <v>1.070548118992964</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9602663802809013</v>
+        <v>1.050430258943209</v>
       </c>
       <c r="D10">
-        <v>0.9877345559149663</v>
+        <v>1.049512023025341</v>
       </c>
       <c r="E10">
-        <v>0.9747137837854011</v>
+        <v>1.056201623539915</v>
       </c>
       <c r="F10">
-        <v>0.9742735924194451</v>
+        <v>1.064509682149195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031952651434816</v>
+        <v>1.03974884742451</v>
       </c>
       <c r="J10">
-        <v>0.9901502292449323</v>
+        <v>1.056664251418192</v>
       </c>
       <c r="K10">
-        <v>1.002328855265487</v>
+        <v>1.052910029353236</v>
       </c>
       <c r="L10">
-        <v>0.9895551069159597</v>
+        <v>1.059576563544745</v>
       </c>
       <c r="M10">
-        <v>0.9891234178325862</v>
+        <v>1.067856418751998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9515728115373866</v>
+        <v>1.049167382954213</v>
       </c>
       <c r="D11">
-        <v>0.9810404383005206</v>
+        <v>1.048540180199645</v>
       </c>
       <c r="E11">
-        <v>0.966875132480654</v>
+        <v>1.055034583741953</v>
       </c>
       <c r="F11">
-        <v>0.9657323766272776</v>
+        <v>1.063216285067726</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028862033755047</v>
+        <v>1.039400561045358</v>
       </c>
       <c r="J11">
-        <v>0.9831088399070806</v>
+        <v>1.055635532853797</v>
       </c>
       <c r="K11">
-        <v>0.9963289858596145</v>
+        <v>1.052061409389597</v>
       </c>
       <c r="L11">
-        <v>0.9824499913367034</v>
+        <v>1.058532528170123</v>
       </c>
       <c r="M11">
-        <v>0.9813308164811878</v>
+        <v>1.066685341407286</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9482421802145465</v>
+        <v>1.04869744707706</v>
       </c>
       <c r="D12">
-        <v>0.9784783659347114</v>
+        <v>1.048178450458765</v>
       </c>
       <c r="E12">
-        <v>0.9638738100970397</v>
+        <v>1.054600271743848</v>
       </c>
       <c r="F12">
-        <v>0.9624625491415598</v>
+        <v>1.062735070133364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027675309097342</v>
+        <v>1.039270552420888</v>
       </c>
       <c r="J12">
-        <v>0.9804108720922163</v>
+        <v>1.055252551610408</v>
       </c>
       <c r="K12">
-        <v>0.9940298373653464</v>
+        <v>1.051745361641217</v>
       </c>
       <c r="L12">
-        <v>0.9797274777132826</v>
+        <v>1.05814383015294</v>
       </c>
       <c r="M12">
-        <v>0.9783460619186525</v>
+        <v>1.066249493596748</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.948961454553803</v>
+        <v>1.04879828867228</v>
       </c>
       <c r="D13">
-        <v>0.9790315404202603</v>
+        <v>1.048256076674938</v>
       </c>
       <c r="E13">
-        <v>0.9645218819423418</v>
+        <v>1.054693470683709</v>
       </c>
       <c r="F13">
-        <v>0.9631685781810014</v>
+        <v>1.062838328507407</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027931706764152</v>
+        <v>1.039298468781499</v>
       </c>
       <c r="J13">
-        <v>0.980993527509087</v>
+        <v>1.055334742060853</v>
       </c>
       <c r="K13">
-        <v>0.9945263723064478</v>
+        <v>1.051813192901789</v>
       </c>
       <c r="L13">
-        <v>0.9803154400320947</v>
+        <v>1.058227248124881</v>
       </c>
       <c r="M13">
-        <v>0.9789906054889415</v>
+        <v>1.066343023613213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9512996595798852</v>
+        <v>1.049128555341979</v>
       </c>
       <c r="D14">
-        <v>0.9808302627966254</v>
+        <v>1.048510294788876</v>
       </c>
       <c r="E14">
-        <v>0.9666289499011883</v>
+        <v>1.054998700267171</v>
       </c>
       <c r="F14">
-        <v>0.9654641605214103</v>
+        <v>1.063176523945253</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028764760307824</v>
+        <v>1.039389827584781</v>
       </c>
       <c r="J14">
-        <v>0.9828875786429564</v>
+        <v>1.055603893359488</v>
       </c>
       <c r="K14">
-        <v>0.9961404361009326</v>
+        <v>1.052035301865346</v>
       </c>
       <c r="L14">
-        <v>0.9822267197224412</v>
+        <v>1.058500416689692</v>
       </c>
       <c r="M14">
-        <v>0.9810860148115762</v>
+        <v>1.066649331720319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.95272640361212</v>
+        <v>1.049331930484706</v>
       </c>
       <c r="D15">
-        <v>0.9819281704300555</v>
+        <v>1.048666827827674</v>
       </c>
       <c r="E15">
-        <v>0.9679148997292401</v>
+        <v>1.055186652749111</v>
       </c>
       <c r="F15">
-        <v>0.9668652233907323</v>
+        <v>1.063384791927597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029272738712135</v>
+        <v>1.039446031772953</v>
       </c>
       <c r="J15">
-        <v>0.9840432730935107</v>
+        <v>1.055769610538446</v>
       </c>
       <c r="K15">
-        <v>0.9971252622186506</v>
+        <v>1.05217203970484</v>
       </c>
       <c r="L15">
-        <v>0.9833929093926402</v>
+        <v>1.058668605380344</v>
       </c>
       <c r="M15">
-        <v>0.9823647078896763</v>
+        <v>1.066837943922044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9608299273796521</v>
+        <v>1.050513954385574</v>
       </c>
       <c r="D16">
-        <v>0.9881688077779761</v>
+        <v>1.049576417676735</v>
       </c>
       <c r="E16">
-        <v>0.9752221362809583</v>
+        <v>1.056278962188932</v>
       </c>
       <c r="F16">
-        <v>0.9748275807538832</v>
+        <v>1.064595411286394</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032152619446701</v>
+        <v>1.039771872792072</v>
       </c>
       <c r="J16">
-        <v>0.9906066197548321</v>
+        <v>1.056732403299951</v>
       </c>
       <c r="K16">
-        <v>1.002717698239415</v>
+        <v>1.052966233647403</v>
       </c>
       <c r="L16">
-        <v>0.9900156109650696</v>
+        <v>1.059645728150368</v>
       </c>
       <c r="M16">
-        <v>0.9896286428464395</v>
+        <v>1.067934020321292</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9657477400301671</v>
+        <v>1.051253923349349</v>
       </c>
       <c r="D17">
-        <v>0.9919598663882229</v>
+        <v>1.050145672743244</v>
       </c>
       <c r="E17">
-        <v>0.9796594058891013</v>
+        <v>1.05696269982927</v>
       </c>
       <c r="F17">
-        <v>0.979663620183814</v>
+        <v>1.065353420486848</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033895522748251</v>
+        <v>1.039975133091841</v>
       </c>
       <c r="J17">
-        <v>0.9945889367277769</v>
+        <v>1.057334810748346</v>
       </c>
       <c r="K17">
-        <v>1.00611035234124</v>
+        <v>1.053462945173145</v>
       </c>
       <c r="L17">
-        <v>0.9940337333745018</v>
+        <v>1.060257076419968</v>
       </c>
       <c r="M17">
-        <v>0.9940378697233343</v>
+        <v>1.068620057004895</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9685608147941729</v>
+        <v>1.051685008116541</v>
       </c>
       <c r="D18">
-        <v>0.9941296223171268</v>
+        <v>1.050477244438253</v>
       </c>
       <c r="E18">
-        <v>0.9821984803322579</v>
+        <v>1.057361001077914</v>
       </c>
       <c r="F18">
-        <v>0.9824312456203894</v>
+        <v>1.065795064960651</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034890691753047</v>
+        <v>1.040093286267254</v>
       </c>
       <c r="J18">
-        <v>0.9968665292638478</v>
+        <v>1.057685641107993</v>
       </c>
       <c r="K18">
-        <v>1.008050461381757</v>
+        <v>1.053752145917171</v>
       </c>
       <c r="L18">
-        <v>0.9963317328290874</v>
+        <v>1.060613104763189</v>
       </c>
       <c r="M18">
-        <v>0.9965602899725923</v>
+        <v>1.069019676358537</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9695109673072407</v>
+        <v>1.051831908307284</v>
       </c>
       <c r="D19">
-        <v>0.9948626761373287</v>
+        <v>1.050590223455658</v>
       </c>
       <c r="E19">
-        <v>0.9830562266319907</v>
+        <v>1.057496725462484</v>
       </c>
       <c r="F19">
-        <v>0.9833662655329521</v>
+        <v>1.065945572038393</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035226511110425</v>
+        <v>1.040133504968791</v>
       </c>
       <c r="J19">
-        <v>0.9976357477730625</v>
+        <v>1.057805173588995</v>
       </c>
       <c r="K19">
-        <v>1.008705656520018</v>
+        <v>1.053850667746662</v>
       </c>
       <c r="L19">
-        <v>0.9971078317133559</v>
+        <v>1.060734406755159</v>
       </c>
       <c r="M19">
-        <v>0.9974123089002898</v>
+        <v>1.069155846312812</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9652259241134958</v>
+        <v>1.051174586331477</v>
       </c>
       <c r="D20">
-        <v>0.9915574784978187</v>
+        <v>1.050084645303678</v>
       </c>
       <c r="E20">
-        <v>0.9791884855553428</v>
+        <v>1.056889394306839</v>
       </c>
       <c r="F20">
-        <v>0.979150341193181</v>
+        <v>1.065272144080575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033710774240814</v>
+        <v>1.039953367145538</v>
       </c>
       <c r="J20">
-        <v>0.994166419929843</v>
+        <v>1.057270234517173</v>
       </c>
       <c r="K20">
-        <v>1.005750421895215</v>
+        <v>1.053409706912371</v>
       </c>
       <c r="L20">
-        <v>0.9936074251832666</v>
+        <v>1.060191542692244</v>
       </c>
       <c r="M20">
-        <v>0.9935699892827958</v>
+        <v>1.068546507187212</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9506140414613138</v>
+        <v>1.049031323636169</v>
       </c>
       <c r="D21">
-        <v>0.9803027597951539</v>
+        <v>1.048435454574414</v>
       </c>
       <c r="E21">
-        <v>0.9660110552583085</v>
+        <v>1.054908840623337</v>
       </c>
       <c r="F21">
-        <v>0.9647909714867366</v>
+        <v>1.063076955818271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028520559741828</v>
+        <v>1.039362942413179</v>
       </c>
       <c r="J21">
-        <v>0.9823322034052218</v>
+        <v>1.055524659175707</v>
       </c>
       <c r="K21">
-        <v>0.9956671646402881</v>
+        <v>1.051969919429258</v>
       </c>
       <c r="L21">
-        <v>0.9816662963211884</v>
+        <v>1.058420000284767</v>
       </c>
       <c r="M21">
-        <v>0.980471568801413</v>
+        <v>1.066559155477641</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9408307974189231</v>
+        <v>1.047678853340303</v>
       </c>
       <c r="D22">
-        <v>0.9727825881534611</v>
+        <v>1.047394229069326</v>
       </c>
       <c r="E22">
-        <v>0.9571989230884838</v>
+        <v>1.0536588237096</v>
       </c>
       <c r="F22">
-        <v>0.9551913162053985</v>
+        <v>1.061692172479676</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025029949363256</v>
+        <v>1.038988014677525</v>
       </c>
       <c r="J22">
-        <v>0.974407056057409</v>
+        <v>1.054422106407931</v>
       </c>
       <c r="K22">
-        <v>0.9889132215324699</v>
+        <v>1.05105984273556</v>
       </c>
       <c r="L22">
-        <v>0.9736687890054272</v>
+        <v>1.057300961899153</v>
       </c>
       <c r="M22">
-        <v>0.9717059570420725</v>
+        <v>1.065304655376599</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9460789844617468</v>
+        <v>1.048396297804225</v>
       </c>
       <c r="D23">
-        <v>0.9768151292859835</v>
+        <v>1.047946617337867</v>
       </c>
       <c r="E23">
-        <v>0.9619250424647566</v>
+        <v>1.05432194061251</v>
       </c>
       <c r="F23">
-        <v>0.9603395677566545</v>
+        <v>1.062426714979057</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026903831015812</v>
+        <v>1.039187124754817</v>
       </c>
       <c r="J23">
-        <v>0.9786585304172651</v>
+        <v>1.055007075188574</v>
       </c>
       <c r="K23">
-        <v>0.9925364786246469</v>
+        <v>1.051542754664305</v>
       </c>
       <c r="L23">
-        <v>0.977959155784756</v>
+        <v>1.057894685366543</v>
       </c>
       <c r="M23">
-        <v>0.9764077416869674</v>
+        <v>1.065970168849648</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9654618804810257</v>
+        <v>1.051210436941367</v>
       </c>
       <c r="D24">
-        <v>0.9917394278093182</v>
+        <v>1.050112222413634</v>
       </c>
       <c r="E24">
-        <v>0.9794014250822515</v>
+        <v>1.056922519496479</v>
       </c>
       <c r="F24">
-        <v>0.9793824331919857</v>
+        <v>1.065308870901851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033794320035255</v>
+        <v>1.039963203491385</v>
       </c>
       <c r="J24">
-        <v>0.9943574760552154</v>
+        <v>1.057299415415909</v>
       </c>
       <c r="K24">
-        <v>1.005913178112553</v>
+        <v>1.053433764605471</v>
       </c>
       <c r="L24">
-        <v>0.9938001959439388</v>
+        <v>1.060221156295085</v>
       </c>
       <c r="M24">
-        <v>0.9937815561268447</v>
+        <v>1.068579742834062</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9858070146646708</v>
+        <v>1.054455516298978</v>
       </c>
       <c r="D25">
-        <v>1.007448857337464</v>
+        <v>1.052607100643386</v>
       </c>
       <c r="E25">
-        <v>0.997777854897668</v>
+        <v>1.059920365656841</v>
       </c>
       <c r="F25">
-        <v>0.9994200701099193</v>
+        <v>1.06863433698814</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040958586364876</v>
+        <v>1.040847934668216</v>
       </c>
       <c r="J25">
-        <v>1.010821655530767</v>
+        <v>1.059938290402981</v>
       </c>
       <c r="K25">
-        <v>1.019932629513303</v>
+        <v>1.055607730173483</v>
       </c>
       <c r="L25">
-        <v>1.010410765029414</v>
+        <v>1.062898972191632</v>
       </c>
       <c r="M25">
-        <v>1.012027395418712</v>
+        <v>1.071587130839684</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_191/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_191/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057028082059764</v>
+        <v>1.000677722001156</v>
       </c>
       <c r="D2">
-        <v>1.054582980607437</v>
+        <v>1.018952697495664</v>
       </c>
       <c r="E2">
-        <v>1.06229614213626</v>
+        <v>1.011227355439773</v>
       </c>
       <c r="F2">
-        <v>1.071272194292041</v>
+        <v>1.01409875541357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041541081105195</v>
+        <v>1.046134924016225</v>
       </c>
       <c r="J2">
-        <v>1.062026641344852</v>
+        <v>1.022838181398835</v>
       </c>
       <c r="K2">
-        <v>1.057325791949646</v>
+        <v>1.030154157729523</v>
       </c>
       <c r="L2">
-        <v>1.065017874336167</v>
+        <v>1.02253246032787</v>
       </c>
       <c r="M2">
-        <v>1.073969809336351</v>
+        <v>1.025365105305355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058887323096292</v>
+        <v>1.010828291341019</v>
       </c>
       <c r="D3">
-        <v>1.056009820986789</v>
+        <v>1.026812243694995</v>
       </c>
       <c r="E3">
-        <v>1.064012694455673</v>
+        <v>1.020415090838763</v>
       </c>
       <c r="F3">
-        <v>1.073179524846739</v>
+        <v>1.024134705595031</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042037246872855</v>
+        <v>1.049631201467729</v>
       </c>
       <c r="J3">
-        <v>1.063533812675358</v>
+        <v>1.031028056574974</v>
       </c>
       <c r="K3">
-        <v>1.058564337102249</v>
+        <v>1.037113176496083</v>
       </c>
       <c r="L3">
-        <v>1.06654694832461</v>
+        <v>1.030793254038156</v>
       </c>
       <c r="M3">
-        <v>1.075690969176053</v>
+        <v>1.034467817555971</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060086506140558</v>
+        <v>1.017134032507357</v>
       </c>
       <c r="D4">
-        <v>1.056929563082408</v>
+        <v>1.031696649448542</v>
       </c>
       <c r="E4">
-        <v>1.065119628164645</v>
+        <v>1.026125271206509</v>
       </c>
       <c r="F4">
-        <v>1.074410140828673</v>
+        <v>1.030376208943292</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04235504896253</v>
+        <v>1.051785393031311</v>
       </c>
       <c r="J4">
-        <v>1.064504932987289</v>
+        <v>1.036109375882573</v>
       </c>
       <c r="K4">
-        <v>1.059361726369347</v>
+        <v>1.041427001918678</v>
       </c>
       <c r="L4">
-        <v>1.067532116180818</v>
+        <v>1.035918289527394</v>
       </c>
       <c r="M4">
-        <v>1.076800699586078</v>
+        <v>1.040121338044373</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060589736302968</v>
+        <v>1.01972691476834</v>
       </c>
       <c r="D5">
-        <v>1.057315394545963</v>
+        <v>1.03370535621866</v>
       </c>
       <c r="E5">
-        <v>1.065584094141732</v>
+        <v>1.028473778375739</v>
       </c>
       <c r="F5">
-        <v>1.074926661026742</v>
+        <v>1.032944267602734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042487881101728</v>
+        <v>1.052666828469896</v>
       </c>
       <c r="J5">
-        <v>1.064912222154091</v>
+        <v>1.038197163020077</v>
       </c>
       <c r="K5">
-        <v>1.059695997014648</v>
+        <v>1.043198477161135</v>
       </c>
       <c r="L5">
-        <v>1.067945281716253</v>
+        <v>1.03802398003475</v>
       </c>
       <c r="M5">
-        <v>1.07726629740958</v>
+        <v>1.042445648536785</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060674178291913</v>
+        <v>1.020158994730127</v>
       </c>
       <c r="D6">
-        <v>1.057380129199358</v>
+        <v>1.034040099471752</v>
       </c>
       <c r="E6">
-        <v>1.065662028427668</v>
+        <v>1.02886516310626</v>
       </c>
       <c r="F6">
-        <v>1.075013338906869</v>
+        <v>1.033372302360511</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042510139121103</v>
+        <v>1.052813452766547</v>
       </c>
       <c r="J6">
-        <v>1.064980551405993</v>
+        <v>1.03854497586506</v>
       </c>
       <c r="K6">
-        <v>1.059752067102849</v>
+        <v>1.043493535973618</v>
       </c>
       <c r="L6">
-        <v>1.068014595942984</v>
+        <v>1.038374772312867</v>
       </c>
       <c r="M6">
-        <v>1.077344419173303</v>
+        <v>1.042832948872023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060093233860751</v>
+        <v>1.01716890096485</v>
       </c>
       <c r="D7">
-        <v>1.056934721815671</v>
+        <v>1.03172366122038</v>
       </c>
       <c r="E7">
-        <v>1.065125837849638</v>
+        <v>1.026156851445867</v>
       </c>
       <c r="F7">
-        <v>1.074417045833764</v>
+        <v>1.030410737370271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042356826896374</v>
+        <v>1.051797263753041</v>
       </c>
       <c r="J7">
-        <v>1.0645103789932</v>
+        <v>1.036137458475461</v>
       </c>
       <c r="K7">
-        <v>1.059366196631577</v>
+        <v>1.041450833739859</v>
       </c>
       <c r="L7">
-        <v>1.067537640820941</v>
+        <v>1.035946613155836</v>
       </c>
       <c r="M7">
-        <v>1.076806924566867</v>
+        <v>1.040152596427399</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05765723482142</v>
+        <v>1.004165531342373</v>
       </c>
       <c r="D8">
-        <v>1.055065925320917</v>
+        <v>1.021652770265778</v>
       </c>
       <c r="E8">
-        <v>1.062877055041987</v>
+        <v>1.014383714692897</v>
       </c>
       <c r="F8">
-        <v>1.071917533755745</v>
+        <v>1.017545646451974</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041709439456033</v>
+        <v>1.047339988217166</v>
       </c>
       <c r="J8">
-        <v>1.062536860137194</v>
+        <v>1.025653586582975</v>
       </c>
       <c r="K8">
-        <v>1.057745207179451</v>
+        <v>1.032547216183108</v>
       </c>
       <c r="L8">
-        <v>1.065535521520612</v>
+        <v>1.025372311518997</v>
       </c>
       <c r="M8">
-        <v>1.074552317809331</v>
+        <v>1.028493082123102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.053334141898693</v>
+        <v>0.9789922610375772</v>
       </c>
       <c r="D9">
-        <v>1.051745266633999</v>
+        <v>1.002182557596145</v>
       </c>
       <c r="E9">
-        <v>1.058884547835645</v>
+        <v>0.9916191758914769</v>
       </c>
       <c r="F9">
-        <v>1.067484940558738</v>
+        <v>0.992702624612177</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040543482043444</v>
+        <v>1.038568234663884</v>
       </c>
       <c r="J9">
-        <v>1.059026961010733</v>
+        <v>1.005309308174359</v>
       </c>
       <c r="K9">
-        <v>1.054857322554998</v>
+        <v>1.015240323298187</v>
       </c>
       <c r="L9">
-        <v>1.061974236987057</v>
+        <v>1.004849705524379</v>
       </c>
       <c r="M9">
-        <v>1.070548118992964</v>
+        <v>1.005915216684388</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050430258943209</v>
+        <v>0.9602663802809035</v>
       </c>
       <c r="D10">
-        <v>1.049512023025341</v>
+        <v>0.9877345559149681</v>
       </c>
       <c r="E10">
-        <v>1.056201623539915</v>
+        <v>0.9747137837854035</v>
       </c>
       <c r="F10">
-        <v>1.064509682149195</v>
+        <v>0.9742735924194473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03974884742451</v>
+        <v>1.031952651434817</v>
       </c>
       <c r="J10">
-        <v>1.056664251418192</v>
+        <v>0.9901502292449346</v>
       </c>
       <c r="K10">
-        <v>1.052910029353236</v>
+        <v>1.002328855265489</v>
       </c>
       <c r="L10">
-        <v>1.059576563544745</v>
+        <v>0.9895551069159617</v>
       </c>
       <c r="M10">
-        <v>1.067856418751998</v>
+        <v>0.9891234178325885</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049167382954213</v>
+        <v>0.9515728115373873</v>
       </c>
       <c r="D11">
-        <v>1.048540180199645</v>
+        <v>0.9810404383005216</v>
       </c>
       <c r="E11">
-        <v>1.055034583741953</v>
+        <v>0.9668751324806547</v>
       </c>
       <c r="F11">
-        <v>1.063216285067726</v>
+        <v>0.9657323766272784</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039400561045358</v>
+        <v>1.028862033755048</v>
       </c>
       <c r="J11">
-        <v>1.055635532853797</v>
+        <v>0.9831088399070814</v>
       </c>
       <c r="K11">
-        <v>1.052061409389597</v>
+        <v>0.996328985859615</v>
       </c>
       <c r="L11">
-        <v>1.058532528170123</v>
+        <v>0.9824499913367041</v>
       </c>
       <c r="M11">
-        <v>1.066685341407286</v>
+        <v>0.9813308164811883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04869744707706</v>
+        <v>0.948242180214547</v>
       </c>
       <c r="D12">
-        <v>1.048178450458765</v>
+        <v>0.9784783659347114</v>
       </c>
       <c r="E12">
-        <v>1.054600271743848</v>
+        <v>0.9638738100970398</v>
       </c>
       <c r="F12">
-        <v>1.062735070133364</v>
+        <v>0.9624625491415603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039270552420888</v>
+        <v>1.027675309097342</v>
       </c>
       <c r="J12">
-        <v>1.055252551610408</v>
+        <v>0.9804108720922164</v>
       </c>
       <c r="K12">
-        <v>1.051745361641217</v>
+        <v>0.9940298373653467</v>
       </c>
       <c r="L12">
-        <v>1.05814383015294</v>
+        <v>0.9797274777132826</v>
       </c>
       <c r="M12">
-        <v>1.066249493596748</v>
+        <v>0.9783460619186528</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04879828867228</v>
+        <v>0.9489614545538017</v>
       </c>
       <c r="D13">
-        <v>1.048256076674938</v>
+        <v>0.9790315404202592</v>
       </c>
       <c r="E13">
-        <v>1.054693470683709</v>
+        <v>0.964521881942341</v>
       </c>
       <c r="F13">
-        <v>1.062838328507407</v>
+        <v>0.9631685781810004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039298468781499</v>
+        <v>1.027931706764152</v>
       </c>
       <c r="J13">
-        <v>1.055334742060853</v>
+        <v>0.9809935275090856</v>
       </c>
       <c r="K13">
-        <v>1.051813192901789</v>
+        <v>0.9945263723064467</v>
       </c>
       <c r="L13">
-        <v>1.058227248124881</v>
+        <v>0.9803154400320937</v>
       </c>
       <c r="M13">
-        <v>1.066343023613213</v>
+        <v>0.9789906054889407</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049128555341979</v>
+        <v>0.9512996595798865</v>
       </c>
       <c r="D14">
-        <v>1.048510294788876</v>
+        <v>0.9808302627966268</v>
       </c>
       <c r="E14">
-        <v>1.054998700267171</v>
+        <v>0.9666289499011896</v>
       </c>
       <c r="F14">
-        <v>1.063176523945253</v>
+        <v>0.9654641605214119</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039389827584781</v>
+        <v>1.028764760307825</v>
       </c>
       <c r="J14">
-        <v>1.055603893359488</v>
+        <v>0.9828875786429575</v>
       </c>
       <c r="K14">
-        <v>1.052035301865346</v>
+        <v>0.9961404361009337</v>
       </c>
       <c r="L14">
-        <v>1.058500416689692</v>
+        <v>0.9822267197224425</v>
       </c>
       <c r="M14">
-        <v>1.066649331720319</v>
+        <v>0.9810860148115778</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049331930484706</v>
+        <v>0.9527264036121219</v>
       </c>
       <c r="D15">
-        <v>1.048666827827674</v>
+        <v>0.9819281704300569</v>
       </c>
       <c r="E15">
-        <v>1.055186652749111</v>
+        <v>0.9679148997292418</v>
       </c>
       <c r="F15">
-        <v>1.063384791927597</v>
+        <v>0.9668652233907339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039446031772953</v>
+        <v>1.029272738712136</v>
       </c>
       <c r="J15">
-        <v>1.055769610538446</v>
+        <v>0.9840432730935121</v>
       </c>
       <c r="K15">
-        <v>1.05217203970484</v>
+        <v>0.9971252622186519</v>
       </c>
       <c r="L15">
-        <v>1.058668605380344</v>
+        <v>0.9833929093926421</v>
       </c>
       <c r="M15">
-        <v>1.066837943922044</v>
+        <v>0.9823647078896779</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050513954385574</v>
+        <v>0.9608299273796506</v>
       </c>
       <c r="D16">
-        <v>1.049576417676735</v>
+        <v>0.9881688077779748</v>
       </c>
       <c r="E16">
-        <v>1.056278962188932</v>
+        <v>0.975222136280957</v>
       </c>
       <c r="F16">
-        <v>1.064595411286394</v>
+        <v>0.9748275807538819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039771872792072</v>
+        <v>1.0321526194467</v>
       </c>
       <c r="J16">
-        <v>1.056732403299951</v>
+        <v>0.9906066197548306</v>
       </c>
       <c r="K16">
-        <v>1.052966233647403</v>
+        <v>1.002717698239414</v>
       </c>
       <c r="L16">
-        <v>1.059645728150368</v>
+        <v>0.9900156109650682</v>
       </c>
       <c r="M16">
-        <v>1.067934020321292</v>
+        <v>0.9896286428464379</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051253923349349</v>
+        <v>0.9657477400301647</v>
       </c>
       <c r="D17">
-        <v>1.050145672743244</v>
+        <v>0.9919598663882212</v>
       </c>
       <c r="E17">
-        <v>1.05696269982927</v>
+        <v>0.9796594058890991</v>
       </c>
       <c r="F17">
-        <v>1.065353420486848</v>
+        <v>0.979663620183812</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039975133091841</v>
+        <v>1.03389552274825</v>
       </c>
       <c r="J17">
-        <v>1.057334810748346</v>
+        <v>0.9945889367277749</v>
       </c>
       <c r="K17">
-        <v>1.053462945173145</v>
+        <v>1.006110352341238</v>
       </c>
       <c r="L17">
-        <v>1.060257076419968</v>
+        <v>0.9940337333744997</v>
       </c>
       <c r="M17">
-        <v>1.068620057004895</v>
+        <v>0.9940378697233323</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051685008116541</v>
+        <v>0.9685608147941694</v>
       </c>
       <c r="D18">
-        <v>1.050477244438253</v>
+        <v>0.9941296223171238</v>
       </c>
       <c r="E18">
-        <v>1.057361001077914</v>
+        <v>0.9821984803322541</v>
       </c>
       <c r="F18">
-        <v>1.065795064960651</v>
+        <v>0.9824312456203859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040093286267254</v>
+        <v>1.034890691753045</v>
       </c>
       <c r="J18">
-        <v>1.057685641107993</v>
+        <v>0.9968665292638444</v>
       </c>
       <c r="K18">
-        <v>1.053752145917171</v>
+        <v>1.008050461381754</v>
       </c>
       <c r="L18">
-        <v>1.060613104763189</v>
+        <v>0.9963317328290838</v>
       </c>
       <c r="M18">
-        <v>1.069019676358537</v>
+        <v>0.9965602899725889</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051831908307284</v>
+        <v>0.9695109673072418</v>
       </c>
       <c r="D19">
-        <v>1.050590223455658</v>
+        <v>0.9948626761373298</v>
       </c>
       <c r="E19">
-        <v>1.057496725462484</v>
+        <v>0.9830562266319917</v>
       </c>
       <c r="F19">
-        <v>1.065945572038393</v>
+        <v>0.9833662655329534</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040133504968791</v>
+        <v>1.035226511110426</v>
       </c>
       <c r="J19">
-        <v>1.057805173588995</v>
+        <v>0.9976357477730636</v>
       </c>
       <c r="K19">
-        <v>1.053850667746662</v>
+        <v>1.008705656520019</v>
       </c>
       <c r="L19">
-        <v>1.060734406755159</v>
+        <v>0.9971078317133568</v>
       </c>
       <c r="M19">
-        <v>1.069155846312812</v>
+        <v>0.9974123089002908</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051174586331477</v>
+        <v>0.9652259241134934</v>
       </c>
       <c r="D20">
-        <v>1.050084645303678</v>
+        <v>0.9915574784978166</v>
       </c>
       <c r="E20">
-        <v>1.056889394306839</v>
+        <v>0.9791884855553407</v>
       </c>
       <c r="F20">
-        <v>1.065272144080575</v>
+        <v>0.9791503411931788</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039953367145538</v>
+        <v>1.033710774240813</v>
       </c>
       <c r="J20">
-        <v>1.057270234517173</v>
+        <v>0.9941664199298408</v>
       </c>
       <c r="K20">
-        <v>1.053409706912371</v>
+        <v>1.005750421895213</v>
       </c>
       <c r="L20">
-        <v>1.060191542692244</v>
+        <v>0.9936074251832646</v>
       </c>
       <c r="M20">
-        <v>1.068546507187212</v>
+        <v>0.9935699892827935</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049031323636169</v>
+        <v>0.9506140414613098</v>
       </c>
       <c r="D21">
-        <v>1.048435454574414</v>
+        <v>0.9803027597951505</v>
       </c>
       <c r="E21">
-        <v>1.054908840623337</v>
+        <v>0.9660110552583049</v>
       </c>
       <c r="F21">
-        <v>1.063076955818271</v>
+        <v>0.9647909714867329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039362942413179</v>
+        <v>1.028520559741826</v>
       </c>
       <c r="J21">
-        <v>1.055524659175707</v>
+        <v>0.982332203405218</v>
       </c>
       <c r="K21">
-        <v>1.051969919429258</v>
+        <v>0.9956671646402849</v>
       </c>
       <c r="L21">
-        <v>1.058420000284767</v>
+        <v>0.9816662963211847</v>
       </c>
       <c r="M21">
-        <v>1.066559155477641</v>
+        <v>0.9804715688014092</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047678853340303</v>
+        <v>0.9408307974189212</v>
       </c>
       <c r="D22">
-        <v>1.047394229069326</v>
+        <v>0.9727825881534593</v>
       </c>
       <c r="E22">
-        <v>1.0536588237096</v>
+        <v>0.9571989230884819</v>
       </c>
       <c r="F22">
-        <v>1.061692172479676</v>
+        <v>0.9551913162053969</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038988014677525</v>
+        <v>1.025029949363255</v>
       </c>
       <c r="J22">
-        <v>1.054422106407931</v>
+        <v>0.9744070560574072</v>
       </c>
       <c r="K22">
-        <v>1.05105984273556</v>
+        <v>0.9889132215324683</v>
       </c>
       <c r="L22">
-        <v>1.057300961899153</v>
+        <v>0.9736687890054253</v>
       </c>
       <c r="M22">
-        <v>1.065304655376599</v>
+        <v>0.9717059570420707</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.048396297804225</v>
+        <v>0.9460789844617474</v>
       </c>
       <c r="D23">
-        <v>1.047946617337867</v>
+        <v>0.9768151292859842</v>
       </c>
       <c r="E23">
-        <v>1.05432194061251</v>
+        <v>0.961925042464757</v>
       </c>
       <c r="F23">
-        <v>1.062426714979057</v>
+        <v>0.9603395677566551</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039187124754817</v>
+        <v>1.026903831015811</v>
       </c>
       <c r="J23">
-        <v>1.055007075188574</v>
+        <v>0.9786585304172661</v>
       </c>
       <c r="K23">
-        <v>1.051542754664305</v>
+        <v>0.9925364786246474</v>
       </c>
       <c r="L23">
-        <v>1.057894685366543</v>
+        <v>0.9779591557847563</v>
       </c>
       <c r="M23">
-        <v>1.065970168849648</v>
+        <v>0.9764077416869678</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051210436941367</v>
+        <v>0.9654618804810294</v>
       </c>
       <c r="D24">
-        <v>1.050112222413634</v>
+        <v>0.9917394278093218</v>
       </c>
       <c r="E24">
-        <v>1.056922519496479</v>
+        <v>0.9794014250822551</v>
       </c>
       <c r="F24">
-        <v>1.065308870901851</v>
+        <v>0.9793824331919893</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039963203491385</v>
+        <v>1.033794320035256</v>
       </c>
       <c r="J24">
-        <v>1.057299415415909</v>
+        <v>0.994357476055219</v>
       </c>
       <c r="K24">
-        <v>1.053433764605471</v>
+        <v>1.005913178112557</v>
       </c>
       <c r="L24">
-        <v>1.060221156295085</v>
+        <v>0.9938001959439423</v>
       </c>
       <c r="M24">
-        <v>1.068579742834062</v>
+        <v>0.9937815561268483</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.054455516298978</v>
+        <v>0.9858070146646698</v>
       </c>
       <c r="D25">
-        <v>1.052607100643386</v>
+        <v>1.007448857337463</v>
       </c>
       <c r="E25">
-        <v>1.059920365656841</v>
+        <v>0.997777854897667</v>
       </c>
       <c r="F25">
-        <v>1.06863433698814</v>
+        <v>0.9994200701099182</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040847934668216</v>
+        <v>1.040958586364876</v>
       </c>
       <c r="J25">
-        <v>1.059938290402981</v>
+        <v>1.010821655530766</v>
       </c>
       <c r="K25">
-        <v>1.055607730173483</v>
+        <v>1.019932629513302</v>
       </c>
       <c r="L25">
-        <v>1.062898972191632</v>
+        <v>1.010410765029413</v>
       </c>
       <c r="M25">
-        <v>1.071587130839684</v>
+        <v>1.012027395418711</v>
       </c>
     </row>
   </sheetData>
